--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="166">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,123 +40,123 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>warning</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>infected</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>shame</t>
   </si>
   <si>
     <t>uncertainty</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>shortages</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -166,6 +166,9 @@
     <t>outbreak</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
@@ -175,352 +178,340 @@
     <t>negative</t>
   </si>
   <si>
-    <t>beauty</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>enjoy</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>special</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>boost</t>
   </si>
   <si>
-    <t>support</t>
+    <t>wish</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>security</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>like</t>
+    <t>offering</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>service</t>
   </si>
   <si>
     <t>available</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>full</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>want</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>customers</t>
   </si>
   <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>news</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>business</t>
+    <t>delivery</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>everyone</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
     <t>today</t>
   </si>
   <si>
+    <t>keep</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>keep</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>news</t>
+    <t>us</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>paper</t>
+    <t>via</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>via</t>
-  </si>
-  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
     <t>toilet</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>people</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -878,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,10 +877,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -950,10 +941,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -968,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -997,13 +988,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9285714285714286</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1018,16 +1009,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1039,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1047,13 +1038,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1065,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1089,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1097,13 +1088,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.84</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1115,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1139,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1147,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.76</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1168,16 +1159,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.9696969696969697</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1197,13 +1188,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.726027397260274</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C8">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1215,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.9545454545454546</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1239,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1247,13 +1238,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6923076923076923</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1265,31 +1256,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.9491525423728814</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1297,38 +1288,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L10">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="L10">
-        <v>18</v>
-      </c>
-      <c r="M10">
-        <v>18</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1339,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1347,13 +1338,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6842105263157895</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1368,16 +1359,16 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.9333333333333333</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1389,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1397,13 +1388,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6578947368421053</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1415,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.9230769230769231</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1439,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1447,13 +1438,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6551724137931034</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1465,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1489,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1497,13 +1488,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1515,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1539,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1547,13 +1538,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6451612903225806</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1565,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>0.8611111111111112</v>
+        <v>0.8515625</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1589,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1597,13 +1588,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6410256410256411</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1615,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.8359375</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L16">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1639,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1647,13 +1638,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6333333333333333</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1665,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.8333333333333334</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1689,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1697,13 +1688,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1715,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18">
-        <v>0.8292682926829268</v>
+        <v>0.8125</v>
       </c>
       <c r="L18">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1739,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1747,13 +1738,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5652173913043478</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1765,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K19">
-        <v>0.8169014084507042</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L19">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1789,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1797,13 +1788,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1815,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K20">
-        <v>0.8125</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1839,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1847,13 +1838,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5135135135135135</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1865,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K21">
-        <v>0.8085106382978723</v>
+        <v>0.8</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1889,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1897,13 +1888,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4864864864864865</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1915,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K22">
-        <v>0.7931034482758621</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1939,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1947,49 +1938,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4705882352941176</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="L23">
+        <v>82</v>
+      </c>
+      <c r="M23">
+        <v>82</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>24</v>
-      </c>
-      <c r="D23">
-        <v>24</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>27</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="L23">
-        <v>95</v>
-      </c>
-      <c r="M23">
-        <v>95</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1997,37 +1988,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24">
+        <v>0.75</v>
+      </c>
+      <c r="L24">
         <v>18</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>18</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>21</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L24">
-        <v>22</v>
-      </c>
-      <c r="M24">
-        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2047,13 +2038,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4341085271317829</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C25">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2065,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K25">
-        <v>0.7843137254901961</v>
+        <v>0.75</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2089,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2097,13 +2088,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4333333333333333</v>
+        <v>0.4631782945736434</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2115,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>277</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L26">
         <v>17</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L26">
-        <v>13</v>
-      </c>
       <c r="M26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2139,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2147,13 +2138,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4266666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2165,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K27">
-        <v>0.7407407407407407</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2189,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2197,13 +2188,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4166666666666667</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2218,28 +2209,28 @@
         <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K28">
-        <v>0.7391304347826086</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L28">
+        <v>46</v>
+      </c>
+      <c r="M28">
+        <v>46</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>17</v>
-      </c>
-      <c r="M28">
-        <v>17</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2247,13 +2238,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4117647058823529</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2265,19 +2256,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K29">
-        <v>0.7358490566037735</v>
+        <v>0.7125</v>
       </c>
       <c r="L29">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="M29">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2289,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2297,13 +2288,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4093959731543624</v>
+        <v>0.4</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2315,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30">
-        <v>0.7301587301587301</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2339,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2347,37 +2338,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3882978723404255</v>
+        <v>0.4</v>
       </c>
       <c r="C31">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K31">
-        <v>0.7222222222222222</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2389,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2397,13 +2388,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3823529411764706</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2415,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32">
-        <v>0.71875</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L32">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="M32">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2439,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2447,13 +2438,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.375</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2465,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K33">
-        <v>0.6919060052219321</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2489,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2497,13 +2488,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3636363636363636</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2515,19 +2506,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34">
-        <v>0.6785714285714286</v>
+        <v>0.6553524804177546</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2539,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2547,13 +2538,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3389830508474576</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2565,19 +2556,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35">
-        <v>0.6785714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2589,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2597,13 +2588,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3333333333333333</v>
+        <v>0.3375</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2615,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36">
-        <v>0.6744186046511628</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2639,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2647,13 +2638,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2727272727272727</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="C37">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D37">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2665,19 +2656,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37">
-        <v>0.6666666666666666</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2689,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2697,7 +2688,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2711864406779661</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C38">
         <v>16</v>
@@ -2715,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K38">
-        <v>0.6595744680851063</v>
+        <v>0.62</v>
       </c>
       <c r="L38">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2739,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2747,13 +2738,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2678571428571428</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2768,16 +2759,16 @@
         <v>41</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39">
-        <v>0.6363636363636364</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2789,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2797,13 +2788,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2545454545454545</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2818,16 +2809,16 @@
         <v>41</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2839,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2847,49 +2838,49 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>66</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L41">
+        <v>28</v>
+      </c>
+      <c r="M41">
+        <v>28</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>20</v>
-      </c>
-      <c r="D41">
-        <v>20</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>60</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K41">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L41">
-        <v>16</v>
-      </c>
-      <c r="M41">
-        <v>16</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2897,13 +2888,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2420634920634921</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C42">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D42">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2915,19 +2906,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42">
-        <v>0.6071428571428571</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2939,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2947,37 +2938,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1559139784946237</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C43">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43">
-        <v>0.6</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L43">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2989,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>136</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2997,37 +2988,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08433734939759036</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K44">
-        <v>0.5842696629213483</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L44">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="M44">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3039,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>37</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3047,37 +3038,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01123234916559692</v>
+        <v>0.0101419878296146</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D45">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="E45">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="F45">
-        <v>0.29</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3081</v>
+        <v>1952</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K45">
-        <v>0.5757575757575758</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3089,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3097,37 +3088,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.006421088205474822</v>
+        <v>0.00932475884244373</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E46">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="F46">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2940</v>
+        <v>3081</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K46">
-        <v>0.575</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3139,21 +3130,45 @@
         <v>0</v>
       </c>
       <c r="Q46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.005704697986577181</v>
+      </c>
+      <c r="C47">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="D47">
+        <v>144</v>
+      </c>
+      <c r="E47">
+        <v>0.88</v>
+      </c>
+      <c r="F47">
+        <v>0.12</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2963</v>
+      </c>
       <c r="J47" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K47">
-        <v>0.5714285714285714</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3165,21 +3180,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K48">
-        <v>0.5600000000000001</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3191,21 +3206,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K49">
-        <v>0.5588235294117647</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3217,21 +3232,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K50">
-        <v>0.5523012552301255</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L50">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M50">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3243,21 +3258,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K51">
-        <v>0.5491525423728814</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="L51">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3269,21 +3284,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K52">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3295,21 +3310,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K53">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3326,16 +3341,16 @@
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K54">
-        <v>0.5161290322580645</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3347,47 +3362,47 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K55">
-        <v>0.5</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L55">
         <v>20</v>
       </c>
       <c r="M55">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K56">
-        <v>0.4923076923076923</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L56">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3399,21 +3414,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K57">
-        <v>0.4871794871794872</v>
+        <v>0.475</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3425,21 +3440,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K58">
-        <v>0.453125</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L58">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3451,21 +3466,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K59">
-        <v>0.4516129032258064</v>
+        <v>0.4375</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3477,21 +3492,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K60">
-        <v>0.4468085106382979</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3503,21 +3518,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K61">
-        <v>0.4383561643835616</v>
+        <v>0.425</v>
       </c>
       <c r="L61">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3529,73 +3544,73 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K62">
-        <v>0.4375</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K63">
-        <v>0.4146341463414634</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N63">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K64">
-        <v>0.3770491803278688</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M64">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3607,21 +3622,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K65">
-        <v>0.3472222222222222</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L65">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3633,47 +3648,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K66">
-        <v>0.3061224489795918</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M66">
         <v>15</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K67">
-        <v>0.3</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3685,21 +3700,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K68">
-        <v>0.288135593220339</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3711,21 +3726,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K69">
-        <v>0.288135593220339</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L69">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3737,64 +3752,64 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K70">
-        <v>0.2061068702290076</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L70">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M70">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K71">
-        <v>0.2</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="L71">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="M71">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="N71">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O71">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>80</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K72">
         <v>0.2</v>
@@ -3820,68 +3835,68 @@
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K73">
-        <v>0.1940298507462687</v>
+        <v>0.2</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K74">
-        <v>0.184652278177458</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L74">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M74">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="N74">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>340</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K75">
-        <v>0.1826923076923077</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="L75">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="M75">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3893,21 +3908,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>340</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K76">
-        <v>0.1743119266055046</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="L76">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="M76">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3919,21 +3934,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>90</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K77">
-        <v>0.1717791411042945</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L77">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3945,73 +3960,73 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K78">
-        <v>0.1653543307086614</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L78">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K79">
-        <v>0.1649484536082474</v>
+        <v>0.1643192488262911</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M79">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>81</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K80">
-        <v>0.1649484536082474</v>
+        <v>0.1635220125786163</v>
       </c>
       <c r="L80">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M80">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -4023,53 +4038,53 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K81">
-        <v>0.1635220125786163</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="L81">
         <v>26</v>
       </c>
       <c r="M81">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K82">
-        <v>0.1549295774647887</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="L82">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M82">
         <v>35</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
@@ -4080,16 +4095,16 @@
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K83">
-        <v>0.1538461538461539</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4101,21 +4116,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K84">
-        <v>0.1453488372093023</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L84">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M84">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -4127,21 +4142,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>147</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K85">
-        <v>0.1428571428571428</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="L85">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -4153,21 +4168,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K86">
-        <v>0.1428571428571428</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L86">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M86">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -4179,125 +4194,125 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K87">
-        <v>0.1351351351351351</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L87">
         <v>15</v>
       </c>
       <c r="M87">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N87">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O87">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K88">
-        <v>0.1348837209302326</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="L88">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M88">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>186</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K89">
-        <v>0.1341463414634146</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="L89">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M89">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N89">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>142</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K90">
-        <v>0.1339285714285714</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L90">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M90">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N90">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K91">
-        <v>0.1304347826086956</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L91">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -4314,94 +4329,94 @@
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K92">
-        <v>0.1224489795918367</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="L92">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M92">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K93">
-        <v>0.12</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="L93">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="M93">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="N93">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O93">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>286</v>
+        <v>784</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K94">
-        <v>0.1195652173913044</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L94">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M94">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N94">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K95">
-        <v>0.1192660550458716</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="L95">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M95">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -4413,64 +4428,64 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K96">
-        <v>0.1171171171171171</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="L96">
         <v>13</v>
       </c>
       <c r="M96">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N96">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K97">
-        <v>0.1129753914988814</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="L97">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="M97">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>793</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K98">
         <v>0.1048387096774194</v>
@@ -4496,16 +4511,16 @@
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K99">
-        <v>0.1043478260869565</v>
+        <v>0.1039755351681957</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M99">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -4517,21 +4532,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>206</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K100">
-        <v>0.1021897810218978</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L100">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M100">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -4543,189 +4558,189 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K101">
-        <v>0.09848484848484848</v>
+        <v>0.09555555555555556</v>
       </c>
       <c r="L101">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M101">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="N101">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O101">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>119</v>
+        <v>814</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K102">
-        <v>0.0941358024691358</v>
+        <v>0.09170305676855896</v>
       </c>
       <c r="L102">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="M102">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N102">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O102">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>587</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K103">
-        <v>0.09090909090909091</v>
+        <v>0.09022556390977443</v>
       </c>
       <c r="L103">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M103">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K104">
-        <v>0.08879023307436182</v>
+        <v>0.08554913294797688</v>
       </c>
       <c r="L104">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M104">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>821</v>
+        <v>791</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K105">
-        <v>0.08429561200923788</v>
+        <v>0.08469055374592833</v>
       </c>
       <c r="L105">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="M105">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="N105">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O105">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>793</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K106">
-        <v>0.08270676691729323</v>
+        <v>0.08057851239669421</v>
       </c>
       <c r="L106">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M106">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N106">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O106">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>244</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>0.0782934833567745</v>
+        <v>0.08054639660857277</v>
       </c>
       <c r="L107">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M107">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="N107">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O107">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>1966</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -4733,25 +4748,25 @@
         <v>158</v>
       </c>
       <c r="K108">
-        <v>0.07491856677524431</v>
+        <v>0.07418856259659969</v>
       </c>
       <c r="L108">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M108">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="N108">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O108">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>284</v>
+        <v>599</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -4759,25 +4774,25 @@
         <v>159</v>
       </c>
       <c r="K109">
-        <v>0.07231404958677685</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="L109">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M109">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N109">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="O109">
-        <v>0.05000000000000004</v>
+        <v>0.18</v>
       </c>
       <c r="P109" t="b">
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>449</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -4785,25 +4800,25 @@
         <v>160</v>
       </c>
       <c r="K110">
-        <v>0.06194690265486726</v>
+        <v>0.05338078291814947</v>
       </c>
       <c r="L110">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M110">
         <v>15</v>
       </c>
       <c r="N110">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -4811,25 +4826,25 @@
         <v>161</v>
       </c>
       <c r="K111">
-        <v>0.06049822064056939</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="L111">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M111">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O111">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111">
-        <v>264</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -4837,233 +4852,155 @@
         <v>162</v>
       </c>
       <c r="K112">
-        <v>0.05957446808510639</v>
+        <v>0.04158004158004158</v>
       </c>
       <c r="L112">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M112">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N112">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="O112">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>221</v>
+        <v>922</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="K113">
-        <v>0.05763688760806916</v>
+        <v>0.04110032362459547</v>
       </c>
       <c r="L113">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="M113">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="N113">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O113">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>327</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>51</v>
+        <v>163</v>
       </c>
       <c r="K114">
-        <v>0.04792746113989637</v>
+        <v>0.03552397868561279</v>
       </c>
       <c r="L114">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="M114">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="N114">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="O114">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>2940</v>
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="K115">
-        <v>0.0392156862745098</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="L115">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="M115">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="N115">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="O115">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>343</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K116">
-        <v>0.0383419689119171</v>
+        <v>0.02601908065915004</v>
       </c>
       <c r="L116">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M116">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N116">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="O116">
-        <v>0.06999999999999995</v>
+        <v>0.21</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>928</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K117">
-        <v>0.03539823008849557</v>
+        <v>0.02420856610800745</v>
       </c>
       <c r="L117">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M117">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N117">
-        <v>0.91</v>
+        <v>0.62</v>
       </c>
       <c r="O117">
-        <v>0.08999999999999997</v>
+        <v>0.38</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="118" spans="10:17">
-      <c r="J118" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K118">
-        <v>0.03165735567970205</v>
-      </c>
-      <c r="L118">
-        <v>17</v>
-      </c>
-      <c r="M118">
-        <v>25</v>
-      </c>
-      <c r="N118">
-        <v>0.68</v>
-      </c>
-      <c r="O118">
-        <v>0.32</v>
-      </c>
-      <c r="P118" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q118">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="119" spans="10:17">
-      <c r="J119" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K119">
-        <v>0.02684775742261529</v>
-      </c>
-      <c r="L119">
-        <v>85</v>
-      </c>
-      <c r="M119">
-        <v>120</v>
-      </c>
-      <c r="N119">
-        <v>0.71</v>
-      </c>
-      <c r="O119">
-        <v>0.29</v>
-      </c>
-      <c r="P119" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q119">
-        <v>3081</v>
-      </c>
-    </row>
-    <row r="120" spans="10:17">
-      <c r="J120" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K120">
-        <v>0.01996527777777778</v>
-      </c>
-      <c r="L120">
-        <v>23</v>
-      </c>
-      <c r="M120">
-        <v>32</v>
-      </c>
-      <c r="N120">
-        <v>0.72</v>
-      </c>
-      <c r="O120">
-        <v>0.28</v>
-      </c>
-      <c r="P120" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q120">
-        <v>1129</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
